--- a/biology/Botanique/Austrostipa/Austrostipa.xlsx
+++ b/biology/Botanique/Austrostipa/Austrostipa.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Austrostipa est un genre de plantes monocotylédones de la famille des Poaceae.
-Ce genre, qui comprend environ 60 espèces, est endémique de l'Australie (c'est l'un des 47 genres de Poaceae endémiques de ce continent)[2].
-L'espèce-type est Austrostipa mollis (R.Br.) S.W.L.Jacobs &amp; J.Everett[3].
+Ce genre, qui comprend environ 60 espèces, est endémique de l'Australie (c'est l'un des 47 genres de Poaceae endémiques de ce continent).
+L'espèce-type est Austrostipa mollis (R.Br.) S.W.L.Jacobs &amp; J.Everett.
 </t>
         </is>
       </c>
@@ -513,9 +525,11 @@
           <t>Liste des espèces et sous-espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon World Checklist of Selected Plant Families (WCSP)  (8 juillet 2016)[4] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon World Checklist of Selected Plant Families (WCSP)  (8 juillet 2016) :
 Austrostipa acrociliata (Reader) S.W.L.Jacobs &amp; J.Everett (1996)
 Austrostipa aphylla (Rodway) S.W.L.Jacobs &amp; J.Everett (1996)
 Austrostipa aquarii (Vickery, S.W.L.Jacobs &amp; J.Everett) S.W.L.Jacobs &amp; J.Everett (1996)
